--- a/Kt2/2.1/2. Normaliseren.xlsx
+++ b/Kt2/2.1/2. Normaliseren.xlsx
@@ -720,8 +720,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:L55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="B55" sqref="B55"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="B39" sqref="B39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>

--- a/Kt2/2.1/2. Normaliseren.xlsx
+++ b/Kt2/2.1/2. Normaliseren.xlsx
@@ -16,10 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="30">
-  <si>
-    <t>User</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="54">
   <si>
     <t>Username</t>
   </si>
@@ -33,9 +30,6 @@
     <t>DateOfBirth</t>
   </si>
   <si>
-    <t>Score</t>
-  </si>
-  <si>
     <t>Admin</t>
   </si>
   <si>
@@ -48,21 +42,12 @@
     <t>DateOfScore</t>
   </si>
   <si>
-    <t>Id</t>
-  </si>
-  <si>
     <t>Category</t>
   </si>
   <si>
     <t>QuestionString</t>
   </si>
   <si>
-    <t>R1 (tbl_User)</t>
-  </si>
-  <si>
-    <t>R2 (tbl_Admin)</t>
-  </si>
-  <si>
     <t>WORKScore</t>
   </si>
   <si>
@@ -90,22 +75,109 @@
     <t>ANXIScore</t>
   </si>
   <si>
-    <t>R3 (tbl_Score)</t>
-  </si>
-  <si>
-    <t>R4 (tbl_Question)</t>
-  </si>
-  <si>
-    <t>Question</t>
-  </si>
-  <si>
     <t>Strokendiagram</t>
   </si>
   <si>
     <t>Bachmandiagram</t>
   </si>
   <si>
-    <t>Normalisatie code van codd</t>
+    <t xml:space="preserve">Stap 0: inventariseer de gegevens aan de hand van de gewenste informatie, uitgaande van een uniek sleutelveld </t>
+  </si>
+  <si>
+    <t>•Admin</t>
+  </si>
+  <si>
+    <t>•TotalScore</t>
+  </si>
+  <si>
+    <t>•DateOfScore</t>
+  </si>
+  <si>
+    <t>•AGGRScore</t>
+  </si>
+  <si>
+    <t>•AGORScore</t>
+  </si>
+  <si>
+    <t>•ANXIScore</t>
+  </si>
+  <si>
+    <t>•COGNScore</t>
+  </si>
+  <si>
+    <t>•MOODScore</t>
+  </si>
+  <si>
+    <t>•SOMAScore</t>
+  </si>
+  <si>
+    <t>•SOPHScore</t>
+  </si>
+  <si>
+    <t>•VITAScore</t>
+  </si>
+  <si>
+    <t>•WORKScore</t>
+  </si>
+  <si>
+    <t>• = repeating group</t>
+  </si>
+  <si>
+    <t>_ = Key</t>
+  </si>
+  <si>
+    <t>•QuestionString</t>
+  </si>
+  <si>
+    <t>Stap 1: Verwijder de repeating groups en zet deze in een aparte tabel.</t>
+  </si>
+  <si>
+    <t>•Password</t>
+  </si>
+  <si>
+    <t>tbl_Admin</t>
+  </si>
+  <si>
+    <t>tbl_Score</t>
+  </si>
+  <si>
+    <t>tbl_Question</t>
+  </si>
+  <si>
+    <t>tbl_User</t>
+  </si>
+  <si>
+    <t>Admin_ID</t>
+  </si>
+  <si>
+    <t>Score_ID</t>
+  </si>
+  <si>
+    <t>Question_ID</t>
+  </si>
+  <si>
+    <t>tbl_UserAdmin</t>
+  </si>
+  <si>
+    <t>User_ID</t>
+  </si>
+  <si>
+    <t>Stap 3: verwijder de gegevens die afhankelijk zijn van niet sleutel-gegevens</t>
+  </si>
+  <si>
+    <t>Stap 2: Verwijder de gegevens die niet afhankelijk zijn van niet-sleutel gegevens</t>
+  </si>
+  <si>
+    <t>tbl_Category</t>
+  </si>
+  <si>
+    <t>Category_ID</t>
+  </si>
+  <si>
+    <t>CategoryName</t>
+  </si>
+  <si>
+    <t>tbl_UserScore</t>
   </si>
 </sst>
 </file>
@@ -166,7 +238,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -189,12 +261,25 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -202,9 +287,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Goed" xfId="1" builtinId="26"/>
@@ -219,26 +312,167 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>476250</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>438150</xdr:colOff>
+      <xdr:row>76</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>476250</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>447676</xdr:colOff>
+      <xdr:row>78</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="3" name="Rechte verbindingslijn met pijl 2"/>
+        <xdr:cNvPr id="15" name="Rechte verbindingslijn met pijl 14"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="3143250" y="14497050"/>
+          <a:ext cx="9526" cy="371475"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>352425</xdr:colOff>
+      <xdr:row>85</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>371475</xdr:colOff>
+      <xdr:row>87</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="23" name="Rechte verbindingslijn met pijl 22"/>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1485900" y="3429000"/>
-          <a:ext cx="0" cy="352425"/>
+          <a:off x="3057525" y="16230600"/>
+          <a:ext cx="19050" cy="361950"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>90</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>390525</xdr:colOff>
+      <xdr:row>92</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="26" name="Rechte verbindingslijn met pijl 25"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="4305300" y="17325975"/>
+          <a:ext cx="9525" cy="238125"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>428625</xdr:colOff>
+      <xdr:row>79</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>428625</xdr:colOff>
+      <xdr:row>80</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="29" name="Rechte verbindingslijn met pijl 28"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="4352925" y="15192375"/>
+          <a:ext cx="0" cy="180975"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -267,25 +501,450 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>476250</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:colOff>495301</xdr:colOff>
+      <xdr:row>76</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>476250</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>447678</xdr:colOff>
+      <xdr:row>83</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="4" name="Rechte verbindingslijn met pijl 3"/>
+        <xdr:cNvPr id="50" name="Gebogen verbindingslijn 49"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000">
+          <a:off x="2009777" y="14801849"/>
+          <a:ext cx="1362075" cy="923927"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 4545"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>438150</xdr:colOff>
+      <xdr:row>76</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>447675</xdr:colOff>
+      <xdr:row>77</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="11" name="Rechte verbindingslijn met pijl 10"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="3143250" y="14478001"/>
+          <a:ext cx="9525" cy="247649"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>79</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>419101</xdr:colOff>
+      <xdr:row>80</xdr:row>
+      <xdr:rowOff>76201</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="16" name="Rechte verbindingslijn met pijl 15"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="4343400" y="15078075"/>
+          <a:ext cx="1" cy="238126"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>84</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>352425</xdr:colOff>
+      <xdr:row>86</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="22" name="Rechte verbindingslijn met pijl 21"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="3048000" y="16163925"/>
+          <a:ext cx="9525" cy="247650"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>91</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>92</xdr:row>
+      <xdr:rowOff>142876</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="28" name="Rechte verbindingslijn met pijl 27"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="4305300" y="17411700"/>
+          <a:ext cx="0" cy="257176"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>428625</xdr:colOff>
+      <xdr:row>79</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>438150</xdr:colOff>
+      <xdr:row>81</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="40" name="Rechte verbindingslijn met pijl 39"/>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1485900" y="4010025"/>
-          <a:ext cx="0" cy="352425"/>
+          <a:off x="4352925" y="15201900"/>
+          <a:ext cx="9525" cy="285750"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>352425</xdr:colOff>
+      <xdr:row>85</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>86</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="44" name="Rechte verbindingslijn met pijl 43"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="3057525" y="16268700"/>
+          <a:ext cx="28575" cy="228600"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>91</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>390525</xdr:colOff>
+      <xdr:row>92</xdr:row>
+      <xdr:rowOff>160020</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="46" name="Rechte verbindingslijn met pijl 45"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4305300" y="17516475"/>
+          <a:ext cx="9525" cy="169545"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>438150</xdr:colOff>
+      <xdr:row>76</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>77</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="47" name="Rechte verbindingslijn met pijl 46"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3143250" y="14563725"/>
+          <a:ext cx="19050" cy="219075"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>81</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>504825</xdr:colOff>
+      <xdr:row>83</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="53" name="Rechte verbindingslijn met pijl 52"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2228850" y="15525750"/>
+          <a:ext cx="9525" cy="323850"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -314,25 +973,25 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>381000</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
+      <xdr:colOff>619126</xdr:colOff>
+      <xdr:row>103</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>381000</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:colOff>1485900</xdr:colOff>
+      <xdr:row>103</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="5" name="Rechte verbindingslijn met pijl 4"/>
+        <xdr:cNvPr id="62" name="Rechte verbindingslijn met pijl 61"/>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm>
-          <a:off x="381000" y="4600575"/>
-          <a:ext cx="0" cy="352425"/>
+        <a:xfrm flipH="1">
+          <a:off x="619126" y="19716750"/>
+          <a:ext cx="866774" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -361,30 +1020,28 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>466728</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>142878</xdr:rowOff>
+      <xdr:colOff>1066799</xdr:colOff>
+      <xdr:row>103</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1466850</xdr:colOff>
+      <xdr:row>103</xdr:row>
+      <xdr:rowOff>104776</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="7" name="Gebogen verbindingslijn 6"/>
+        <xdr:cNvPr id="64" name="Rechte verbindingslijn met pijl 63"/>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm>
-          <a:off x="466728" y="5857878"/>
-          <a:ext cx="628647" cy="352422"/>
+        <a:xfrm flipV="1">
+          <a:off x="1066799" y="19716750"/>
+          <a:ext cx="400051" cy="9526"/>
         </a:xfrm>
-        <a:prstGeom prst="bentConnector3">
-          <a:avLst>
-            <a:gd name="adj1" fmla="val 50000"/>
-          </a:avLst>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
         </a:prstGeom>
         <a:ln>
           <a:tailEnd type="arrow"/>
@@ -410,30 +1067,169 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>466725</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:colOff>1000124</xdr:colOff>
+      <xdr:row>103</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>1581150</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
+      <xdr:colOff>1590675</xdr:colOff>
+      <xdr:row>103</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="13" name="Gebogen verbindingslijn 12"/>
+        <xdr:cNvPr id="65" name="Rechte verbindingslijn met pijl 64"/>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="466725" y="6419850"/>
-          <a:ext cx="1114425" cy="352425"/>
+          <a:off x="1000124" y="19716750"/>
+          <a:ext cx="590551" cy="0"/>
         </a:xfrm>
-        <a:prstGeom prst="bentConnector3">
-          <a:avLst>
-            <a:gd name="adj1" fmla="val 58547"/>
-          </a:avLst>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>74543</xdr:colOff>
+      <xdr:row>103</xdr:row>
+      <xdr:rowOff>107674</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>941317</xdr:colOff>
+      <xdr:row>103</xdr:row>
+      <xdr:rowOff>107674</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="67" name="Rechte verbindingslijn met pijl 66"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="2774673" y="19729174"/>
+          <a:ext cx="866774" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>160267</xdr:colOff>
+      <xdr:row>103</xdr:row>
+      <xdr:rowOff>107674</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1027041</xdr:colOff>
+      <xdr:row>103</xdr:row>
+      <xdr:rowOff>107674</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="68" name="Rechte verbindingslijn met pijl 67"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="2860397" y="19729174"/>
+          <a:ext cx="866774" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>455541</xdr:colOff>
+      <xdr:row>103</xdr:row>
+      <xdr:rowOff>107674</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1046092</xdr:colOff>
+      <xdr:row>103</xdr:row>
+      <xdr:rowOff>107674</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="69" name="Rechte verbindingslijn met pijl 68"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3155671" y="19729174"/>
+          <a:ext cx="590551" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
         </a:prstGeom>
         <a:ln>
           <a:tailEnd type="arrow"/>
@@ -459,25 +1255,72 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>409575</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
+      <xdr:colOff>952500</xdr:colOff>
+      <xdr:row>107</xdr:row>
+      <xdr:rowOff>107674</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>828675</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>858492</xdr:colOff>
+      <xdr:row>107</xdr:row>
+      <xdr:rowOff>107674</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="17" name="Rechte verbindingslijn met pijl 16"/>
+        <xdr:cNvPr id="70" name="Rechte verbindingslijn met pijl 69"/>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="409575" y="5857875"/>
-          <a:ext cx="419100" cy="0"/>
+          <a:off x="7015370" y="19729174"/>
+          <a:ext cx="866774" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1143000</xdr:colOff>
+      <xdr:row>107</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>944216</xdr:colOff>
+      <xdr:row>107</xdr:row>
+      <xdr:rowOff>107674</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="71" name="Rechte verbindingslijn met pijl 70"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="1143000" y="20478750"/>
+          <a:ext cx="1534766" cy="12424"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -506,30 +1349,28 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>409578</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:colOff>372716</xdr:colOff>
+      <xdr:row>107</xdr:row>
+      <xdr:rowOff>107674</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>142878</xdr:rowOff>
+      <xdr:colOff>2484</xdr:colOff>
+      <xdr:row>107</xdr:row>
+      <xdr:rowOff>107674</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="18" name="Gebogen verbindingslijn 17"/>
+        <xdr:cNvPr id="72" name="Rechte verbindingslijn met pijl 71"/>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="1495428" y="5867400"/>
-          <a:ext cx="561972" cy="371478"/>
+        <a:xfrm>
+          <a:off x="7396368" y="19729174"/>
+          <a:ext cx="590551" cy="0"/>
         </a:xfrm>
-        <a:prstGeom prst="bentConnector3">
-          <a:avLst>
-            <a:gd name="adj1" fmla="val 50000"/>
-          </a:avLst>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
         </a:prstGeom>
         <a:ln>
           <a:tailEnd type="arrow"/>
@@ -554,31 +1395,29 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>409575</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>107</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>857250</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1000124</xdr:colOff>
+      <xdr:row>107</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="19" name="Gebogen verbindingslijn 18"/>
+        <xdr:cNvPr id="79" name="Rechte verbindingslijn met pijl 78"/>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="1495425" y="5876925"/>
-          <a:ext cx="447675" cy="352425"/>
+        <a:xfrm flipH="1">
+          <a:off x="12877800" y="19716750"/>
+          <a:ext cx="866774" cy="0"/>
         </a:xfrm>
-        <a:prstGeom prst="bentConnector3">
-          <a:avLst>
-            <a:gd name="adj1" fmla="val 60638"/>
-          </a:avLst>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
         </a:prstGeom>
         <a:ln>
           <a:tailEnd type="arrow"/>
@@ -603,26 +1442,26 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>295275</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>219074</xdr:colOff>
+      <xdr:row>107</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>714375</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1085848</xdr:colOff>
+      <xdr:row>107</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="25" name="Rechte verbindingslijn met pijl 24"/>
+        <xdr:cNvPr id="80" name="Rechte verbindingslijn met pijl 79"/>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="1381125" y="6229350"/>
-          <a:ext cx="419100" cy="0"/>
+          <a:off x="12963524" y="19716750"/>
+          <a:ext cx="866774" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -650,31 +1489,29 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>333376</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>123826</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>514348</xdr:colOff>
+      <xdr:row>107</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>809627</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>104777</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1104899</xdr:colOff>
+      <xdr:row>107</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="28" name="Gebogen verbindingslijn 27"/>
+        <xdr:cNvPr id="81" name="Rechte verbindingslijn met pijl 80"/>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm rot="10800000">
-          <a:off x="2381251" y="5838826"/>
-          <a:ext cx="476251" cy="361951"/>
+        <a:xfrm>
+          <a:off x="13258798" y="19716750"/>
+          <a:ext cx="590551" cy="0"/>
         </a:xfrm>
-        <a:prstGeom prst="bentConnector3">
-          <a:avLst>
-            <a:gd name="adj1" fmla="val 34000"/>
-          </a:avLst>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
         </a:prstGeom>
         <a:ln>
           <a:tailEnd type="arrow"/>
@@ -699,31 +1536,29 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>466725</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>314325</xdr:colOff>
+      <xdr:row>104</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>47626</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>104776</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>314325</xdr:colOff>
+      <xdr:row>106</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="32" name="Gebogen verbindingslijn 31"/>
+        <xdr:cNvPr id="84" name="Rechte verbindingslijn met pijl 83"/>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm rot="10800000">
-          <a:off x="2514600" y="5838825"/>
-          <a:ext cx="476251" cy="361951"/>
+        <a:xfrm>
+          <a:off x="314325" y="19916775"/>
+          <a:ext cx="0" cy="438150"/>
         </a:xfrm>
-        <a:prstGeom prst="bentConnector3">
-          <a:avLst>
-            <a:gd name="adj1" fmla="val 60000"/>
-          </a:avLst>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
         </a:prstGeom>
         <a:ln>
           <a:tailEnd type="arrow"/>
@@ -748,26 +1583,73 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>666750</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>314325</xdr:colOff>
+      <xdr:row>104</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>885825</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>323850</xdr:colOff>
+      <xdr:row>106</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="35" name="Rechte verbindingslijn met pijl 34"/>
+        <xdr:cNvPr id="89" name="Rechte verbindingslijn met pijl 88"/>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2714625" y="6210300"/>
-          <a:ext cx="219075" cy="0"/>
+        <a:xfrm flipH="1">
+          <a:off x="314325" y="19964400"/>
+          <a:ext cx="9525" cy="276225"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>314324</xdr:colOff>
+      <xdr:row>104</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>323850</xdr:colOff>
+      <xdr:row>106</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="91" name="Rechte verbindingslijn met pijl 90"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="314324" y="19831050"/>
+          <a:ext cx="9526" cy="409575"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -1081,279 +1963,977 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A2:M55"/>
+  <dimension ref="A1:N129"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A73" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F100" sqref="F100"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="26" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.5703125" customWidth="1"/>
-    <col min="6" max="6" width="11" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.28515625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.7109375" customWidth="1"/>
+    <col min="12" max="12" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="20.42578125" customWidth="1"/>
+    <col min="14" max="15" width="11.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:12">
-      <c r="A2" s="9" t="s">
+    <row r="1" spans="1:3">
+      <c r="A1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="4" spans="1:12">
-      <c r="A4" s="2" t="s">
+    <row r="17" spans="1:4">
+      <c r="A17" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29" t="s">
+        <v>1</v>
+      </c>
+      <c r="B29" t="s">
+        <v>4</v>
+      </c>
+      <c r="C29" t="s">
+        <v>6</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30" t="s">
+        <v>2</v>
+      </c>
+      <c r="B30" t="s">
+        <v>5</v>
+      </c>
+      <c r="C30" t="s">
+        <v>7</v>
+      </c>
+      <c r="D30" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31" t="s">
+        <v>3</v>
+      </c>
+      <c r="C31" t="s">
+        <v>16</v>
+      </c>
+      <c r="D31" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="C32" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
+      <c r="C33" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
+      <c r="C34" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
+      <c r="C35" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="2" t="s">
+    </row>
+    <row r="36" spans="1:9">
+      <c r="C36" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12">
-      <c r="A5" s="1" t="s">
+    </row>
+    <row r="37" spans="1:9">
+      <c r="C37" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
+      <c r="C38" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
+      <c r="C39" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9">
+      <c r="A42" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9">
+      <c r="B43" s="2"/>
+      <c r="C43" s="2"/>
+      <c r="E43" s="2"/>
+      <c r="F43" s="2"/>
+    </row>
+    <row r="44" spans="1:9">
+      <c r="A44" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E44" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="F44" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="H44" s="1"/>
+      <c r="I44" s="1"/>
+    </row>
+    <row r="45" spans="1:9">
+      <c r="A45" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F45" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="H45" s="1"/>
+      <c r="I45" s="1"/>
+    </row>
+    <row r="46" spans="1:9">
+      <c r="A46" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D46" t="s">
+        <v>4</v>
+      </c>
+      <c r="E46" t="s">
+        <v>6</v>
+      </c>
+      <c r="F46" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9">
+      <c r="A47" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="C47" s="1"/>
+      <c r="D47" t="s">
+        <v>5</v>
+      </c>
+      <c r="E47" t="s">
+        <v>7</v>
+      </c>
+      <c r="F47" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9">
+      <c r="A48" t="s">
+        <v>2</v>
+      </c>
+      <c r="E48" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
+      <c r="A49" t="s">
+        <v>3</v>
+      </c>
+      <c r="E49" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
+      <c r="E50" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
+      <c r="E51" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
+      <c r="E52" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7">
+      <c r="E53" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7">
+      <c r="E54" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7">
+      <c r="E55" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7">
+      <c r="E56" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7">
+      <c r="A58" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7">
+      <c r="A60" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B60" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C60" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D60" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E60" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="F60" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="G60" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7">
+      <c r="A61" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D61" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E61" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F61" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="G61" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7">
+      <c r="A62" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D62" t="s">
+        <v>4</v>
+      </c>
+      <c r="E62" t="s">
+        <v>6</v>
+      </c>
+      <c r="F62" t="s">
+        <v>9</v>
+      </c>
+      <c r="G62" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7">
+      <c r="A63" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="B63" s="1"/>
+      <c r="D63" t="s">
+        <v>5</v>
+      </c>
+      <c r="E63" t="s">
+        <v>7</v>
+      </c>
+      <c r="F63" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7">
+      <c r="A64" t="s">
+        <v>2</v>
+      </c>
+      <c r="E64" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7">
+      <c r="A65" t="s">
+        <v>3</v>
+      </c>
+      <c r="E65" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7">
+      <c r="E66" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7">
+      <c r="E67" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7">
+      <c r="E68" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7">
+      <c r="E69" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7">
+      <c r="E70" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7">
+      <c r="E71" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7">
+      <c r="E72" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="1" t="s">
+    </row>
+    <row r="74" spans="1:7">
+      <c r="A74" s="7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7">
+      <c r="A76" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="C76" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="D76" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="E76" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="F76" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="G76" s="6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7">
+      <c r="A79" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="C79" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="D79" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="E79" s="5"/>
+    </row>
+    <row r="80" spans="1:7">
+      <c r="A80" s="11"/>
+      <c r="C80" s="9"/>
+      <c r="D80" s="9"/>
+      <c r="E80" s="9"/>
+    </row>
+    <row r="82" spans="1:14">
+      <c r="A82" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="C82" s="8"/>
+      <c r="D82" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="E82" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="F82" s="6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="83" spans="1:14">
+      <c r="A83" s="11"/>
+      <c r="C83" s="8"/>
+      <c r="D83" s="8"/>
+      <c r="E83" s="8"/>
+      <c r="F83" s="8"/>
+    </row>
+    <row r="85" spans="1:14">
+      <c r="A85" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="B85" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="C85" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="D85" s="8"/>
+    </row>
+    <row r="86" spans="1:14">
+      <c r="A86" s="11"/>
+      <c r="B86" s="9"/>
+      <c r="C86" s="9"/>
+      <c r="D86" s="8"/>
+    </row>
+    <row r="88" spans="1:14">
+      <c r="A88" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="B88" s="6"/>
+      <c r="C88" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="D88" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="E88" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="F88" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="G88" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="H88" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="I88" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="J88" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="K88" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="L88" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="M88" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="N88" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="F5" s="2"/>
-    </row>
-    <row r="6" spans="1:12">
-      <c r="A6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6" t="s">
-        <v>2</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F6" s="3"/>
-    </row>
-    <row r="7" spans="1:12">
-      <c r="B7" t="s">
-        <v>3</v>
-      </c>
-      <c r="C7" t="s">
+    </row>
+    <row r="89" spans="1:14">
+      <c r="A89" s="11"/>
+      <c r="B89" s="8"/>
+      <c r="C89" s="9"/>
+      <c r="E89" s="8"/>
+    </row>
+    <row r="91" spans="1:14">
+      <c r="A91" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="B91" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="C91" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D91" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12">
-      <c r="B8" t="s">
-        <v>4</v>
-      </c>
-      <c r="C8" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12">
-      <c r="B9" t="s">
-        <v>6</v>
-      </c>
-      <c r="C9" t="s">
-        <v>21</v>
-      </c>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2"/>
-      <c r="H9" s="2"/>
-      <c r="I9" s="2"/>
-      <c r="J9" s="2"/>
-      <c r="K9" s="2"/>
-      <c r="L9" s="2"/>
-    </row>
-    <row r="10" spans="1:12">
-      <c r="C10" t="s">
-        <v>22</v>
-      </c>
-      <c r="L10" s="3"/>
-    </row>
-    <row r="11" spans="1:12">
-      <c r="C11" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12">
-      <c r="C12" t="s">
+    </row>
+    <row r="92" spans="1:14">
+      <c r="A92" s="11"/>
+      <c r="B92" s="1"/>
+      <c r="C92" s="8"/>
+    </row>
+    <row r="93" spans="1:14">
+      <c r="A93" s="2"/>
+    </row>
+    <row r="94" spans="1:14">
+      <c r="A94" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="D94" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="E94" s="6" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="98" spans="1:12">
+      <c r="B98" s="1"/>
+    </row>
+    <row r="99" spans="1:12">
+      <c r="A99" s="7" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:12">
-      <c r="A13" s="2"/>
-      <c r="C13" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12">
-      <c r="C14" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12">
-      <c r="C15" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12">
-      <c r="C16" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
-      <c r="A17" s="2"/>
-      <c r="C17" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
-      <c r="A19" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="B19" s="1"/>
-    </row>
-    <row r="21" spans="1:13">
-      <c r="B21" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="C21" s="5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
-      <c r="B24" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="C24" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="D24" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="E24" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
-      <c r="A25" s="2"/>
-    </row>
-    <row r="27" spans="1:13">
-      <c r="A27" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="B27" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="C27" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="D27" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="E27" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="F27" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="G27" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="H27" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="I27" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="J27" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="K27" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="L27" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="M27" s="6" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13">
-      <c r="A28" s="1"/>
-    </row>
-    <row r="30" spans="1:13">
-      <c r="A30" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="B30" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="C30" s="8" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13">
-      <c r="A32" s="9" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6">
-      <c r="A34" t="s">
-        <v>6</v>
-      </c>
-      <c r="C34" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6">
-      <c r="B36" t="s">
-        <v>0</v>
-      </c>
-      <c r="D36" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6">
-      <c r="A37" s="2"/>
-    </row>
-    <row r="38" spans="1:6">
-      <c r="B38" s="2"/>
-      <c r="D38" s="2"/>
-      <c r="F38" s="2"/>
-    </row>
-    <row r="39" spans="1:6">
-      <c r="B39" s="1"/>
-      <c r="D39" s="1"/>
-      <c r="F39" s="1"/>
-    </row>
-    <row r="55" spans="1:1">
-      <c r="A55" s="2"/>
+    <row r="104" spans="1:12">
+      <c r="A104" t="s">
+        <v>42</v>
+      </c>
+      <c r="B104" t="s">
+        <v>46</v>
+      </c>
+      <c r="D104" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="105" spans="1:12">
+      <c r="A105" s="2"/>
+      <c r="F105" s="3"/>
+    </row>
+    <row r="108" spans="1:12">
+      <c r="A108" t="s">
+        <v>53</v>
+      </c>
+      <c r="C108" t="s">
+        <v>40</v>
+      </c>
+      <c r="D108" t="s">
+        <v>41</v>
+      </c>
+      <c r="F108" t="s">
+        <v>50</v>
+      </c>
+      <c r="G108" s="2"/>
+      <c r="H108" s="2"/>
+      <c r="I108" s="2"/>
+      <c r="J108" s="2"/>
+      <c r="K108" s="2"/>
+      <c r="L108" s="2"/>
+    </row>
+    <row r="109" spans="1:12">
+      <c r="L109" s="3"/>
+    </row>
+    <row r="110" spans="1:12">
+      <c r="E110" s="8"/>
+      <c r="G110" s="8"/>
+      <c r="H110" s="8"/>
+      <c r="I110" s="8"/>
+      <c r="J110" s="8"/>
+      <c r="K110" s="8"/>
+    </row>
+    <row r="111" spans="1:12">
+      <c r="A111" s="8"/>
+      <c r="B111" s="9"/>
+      <c r="C111" s="8"/>
+      <c r="E111" s="8"/>
+      <c r="F111" s="8"/>
+      <c r="G111" s="8"/>
+      <c r="H111" s="8"/>
+      <c r="I111" s="8"/>
+      <c r="J111" s="8"/>
+      <c r="K111" s="8"/>
+    </row>
+    <row r="112" spans="1:12">
+      <c r="A112" s="8"/>
+      <c r="B112" s="8"/>
+      <c r="C112" s="8"/>
+      <c r="D112" s="8"/>
+      <c r="E112" s="8"/>
+      <c r="F112" s="8"/>
+      <c r="G112" s="8"/>
+      <c r="H112" s="8"/>
+      <c r="I112" s="8"/>
+      <c r="J112" s="8"/>
+      <c r="K112" s="8"/>
+    </row>
+    <row r="113" spans="1:13">
+      <c r="A113" s="8"/>
+      <c r="B113" s="10"/>
+      <c r="C113" s="8"/>
+      <c r="D113" s="8"/>
+      <c r="E113" s="8"/>
+      <c r="F113" s="8"/>
+      <c r="G113" s="8"/>
+      <c r="H113" s="8"/>
+      <c r="I113" s="8"/>
+      <c r="J113" s="8"/>
+      <c r="K113" s="8"/>
+    </row>
+    <row r="114" spans="1:13">
+      <c r="A114" s="8"/>
+      <c r="B114" s="8"/>
+      <c r="C114" s="8"/>
+      <c r="D114" s="8"/>
+      <c r="E114" s="8"/>
+      <c r="F114" s="8"/>
+      <c r="G114" s="8"/>
+      <c r="H114" s="8"/>
+      <c r="I114" s="8"/>
+      <c r="J114" s="8"/>
+      <c r="K114" s="8"/>
+    </row>
+    <row r="115" spans="1:13">
+      <c r="A115" s="11"/>
+      <c r="B115" s="8"/>
+      <c r="C115" s="8"/>
+      <c r="D115" s="8"/>
+      <c r="E115" s="8"/>
+      <c r="F115" s="8"/>
+      <c r="G115" s="8"/>
+      <c r="H115" s="8"/>
+      <c r="I115" s="8"/>
+      <c r="J115" s="8"/>
+      <c r="K115" s="8"/>
+    </row>
+    <row r="116" spans="1:13">
+      <c r="A116" s="8"/>
+      <c r="B116" s="10"/>
+      <c r="C116" s="8"/>
+      <c r="D116" s="8"/>
+      <c r="E116" s="8"/>
+      <c r="F116" s="8"/>
+      <c r="G116" s="8"/>
+      <c r="H116" s="8"/>
+      <c r="I116" s="8"/>
+      <c r="J116" s="8"/>
+      <c r="K116" s="8"/>
+    </row>
+    <row r="117" spans="1:13">
+      <c r="A117" s="10"/>
+      <c r="B117" s="8"/>
+      <c r="C117" s="8"/>
+      <c r="D117" s="8"/>
+      <c r="E117" s="8"/>
+      <c r="F117" s="8"/>
+      <c r="G117" s="8"/>
+      <c r="H117" s="8"/>
+      <c r="I117" s="8"/>
+      <c r="J117" s="8"/>
+      <c r="K117" s="8"/>
+    </row>
+    <row r="118" spans="1:13">
+      <c r="A118" s="9"/>
+      <c r="B118" s="8"/>
+      <c r="C118" s="8"/>
+      <c r="D118" s="8"/>
+      <c r="E118" s="8"/>
+      <c r="F118" s="8"/>
+      <c r="G118" s="8"/>
+      <c r="H118" s="8"/>
+      <c r="I118" s="8"/>
+      <c r="J118" s="8"/>
+      <c r="K118" s="8"/>
+    </row>
+    <row r="119" spans="1:13">
+      <c r="A119" s="8"/>
+      <c r="B119" s="10"/>
+      <c r="C119" s="10"/>
+      <c r="D119" s="8"/>
+      <c r="E119" s="8"/>
+      <c r="F119" s="8"/>
+      <c r="G119" s="8"/>
+      <c r="H119" s="8"/>
+      <c r="I119" s="8"/>
+      <c r="J119" s="8"/>
+      <c r="K119" s="8"/>
+    </row>
+    <row r="120" spans="1:13">
+      <c r="A120" s="10"/>
+      <c r="B120" s="8"/>
+      <c r="C120" s="8"/>
+      <c r="D120" s="8"/>
+      <c r="E120" s="8"/>
+      <c r="F120" s="8"/>
+      <c r="G120" s="8"/>
+      <c r="H120" s="8"/>
+      <c r="I120" s="8"/>
+      <c r="J120" s="8"/>
+      <c r="K120" s="8"/>
+    </row>
+    <row r="121" spans="1:13">
+      <c r="D121" s="8"/>
+      <c r="F121" s="8"/>
+    </row>
+    <row r="122" spans="1:13">
+      <c r="B122" s="13"/>
+      <c r="E122" s="8"/>
+      <c r="G122" s="8"/>
+      <c r="H122" s="8"/>
+      <c r="I122" s="8"/>
+      <c r="J122" s="8"/>
+      <c r="K122" s="8"/>
+      <c r="L122" s="8"/>
+      <c r="M122" s="8"/>
+    </row>
+    <row r="123" spans="1:13">
+      <c r="E123" s="8"/>
+      <c r="F123" s="12"/>
+      <c r="G123" s="8"/>
+      <c r="H123" s="8"/>
+      <c r="I123" s="8"/>
+      <c r="J123" s="8"/>
+      <c r="K123" s="8"/>
+      <c r="L123" s="8"/>
+      <c r="M123" s="8"/>
+    </row>
+    <row r="124" spans="1:13">
+      <c r="E124" s="8"/>
+      <c r="F124" s="8"/>
+      <c r="G124" s="8"/>
+      <c r="H124" s="8"/>
+      <c r="I124" s="8"/>
+      <c r="J124" s="8"/>
+      <c r="K124" s="8"/>
+      <c r="L124" s="8"/>
+      <c r="M124" s="8"/>
+    </row>
+    <row r="125" spans="1:13">
+      <c r="E125" s="8"/>
+      <c r="F125" s="8"/>
+      <c r="G125" s="8"/>
+      <c r="H125" s="8"/>
+      <c r="I125" s="8"/>
+      <c r="J125" s="8"/>
+      <c r="K125" s="8"/>
+      <c r="L125" s="8"/>
+      <c r="M125" s="8"/>
+    </row>
+    <row r="126" spans="1:13">
+      <c r="E126" s="8"/>
+      <c r="F126" s="8"/>
+      <c r="G126" s="8"/>
+      <c r="H126" s="8"/>
+      <c r="I126" s="8"/>
+      <c r="J126" s="8"/>
+      <c r="K126" s="8"/>
+      <c r="L126" s="8"/>
+      <c r="M126" s="8"/>
+    </row>
+    <row r="127" spans="1:13">
+      <c r="E127" s="8"/>
+      <c r="F127" s="8"/>
+      <c r="G127" s="8"/>
+      <c r="H127" s="8"/>
+      <c r="I127" s="8"/>
+      <c r="J127" s="8"/>
+      <c r="K127" s="8"/>
+      <c r="L127" s="8"/>
+      <c r="M127" s="8"/>
+    </row>
+    <row r="128" spans="1:13">
+      <c r="E128" s="8"/>
+      <c r="F128" s="8"/>
+      <c r="G128" s="8"/>
+      <c r="H128" s="8"/>
+      <c r="I128" s="8"/>
+      <c r="J128" s="8"/>
+      <c r="K128" s="8"/>
+      <c r="L128" s="8"/>
+      <c r="M128" s="8"/>
+    </row>
+    <row r="129" spans="6:6">
+      <c r="F129" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
